--- a/MWS/Application/VariousDocumentOut/Doc/Excel/13-納品補助作業依頼書.xlsx
+++ b/MWS/Application/VariousDocumentOut/Doc/Excel/13-納品補助作業依頼書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\VariousDocumentOut\Doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C088186-C8D7-4EE4-928F-1785FC116B5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F7A589-9CDC-42E3-868D-C3C14CA36EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="休止届" sheetId="17" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="102">
   <si>
     <t>TEL</t>
     <phoneticPr fontId="1"/>
@@ -842,10 +842,6 @@
   </si>
   <si>
     <t>株式会社ミック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Windows10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1721,22 +1717,259 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1747,246 +1980,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2073,6 +2066,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4912,990 +4908,990 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="101"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R13" s="64" t="s">
+      <c r="R13" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64" t="s">
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
     </row>
     <row r="15" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="100"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="76"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="88" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="90"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="69"/>
     </row>
     <row r="17" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="94" t="s">
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="96"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="81"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="88" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="90"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="69"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="91" t="s">
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="93"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="90"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="96"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="81"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="82" t="s">
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="64" t="s">
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64" t="s">
+      <c r="T21" s="71"/>
+      <c r="U21" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="120"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="120"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="64" t="s">
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64" t="s">
+      <c r="T23" s="71"/>
+      <c r="U23" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="73" t="s">
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="73" t="s">
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="74"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="75"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="108"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B26" s="116"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="81"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="111"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="64" t="s">
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="102" t="s">
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="64">
+      <c r="O27" s="114"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="71">
         <v>4</v>
       </c>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
     </row>
     <row r="30" spans="2:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="116"/>
+      <c r="Z30" s="116"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="73" t="s">
+      <c r="C31" s="92"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="75"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="107"/>
+      <c r="W31" s="107"/>
+      <c r="X31" s="107"/>
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="108"/>
     </row>
     <row r="32" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="80"/>
-      <c r="U32" s="80"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="80"/>
-      <c r="X32" s="80"/>
-      <c r="Y32" s="80"/>
-      <c r="Z32" s="81"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="110"/>
+      <c r="T32" s="110"/>
+      <c r="U32" s="110"/>
+      <c r="V32" s="110"/>
+      <c r="W32" s="110"/>
+      <c r="X32" s="110"/>
+      <c r="Y32" s="110"/>
+      <c r="Z32" s="111"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="75"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="107"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="108"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="120"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="77"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="77"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="77"/>
-      <c r="Y34" s="77"/>
-      <c r="Z34" s="78"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="119"/>
+      <c r="R34" s="119"/>
+      <c r="S34" s="119"/>
+      <c r="T34" s="119"/>
+      <c r="U34" s="119"/>
+      <c r="V34" s="119"/>
+      <c r="W34" s="119"/>
+      <c r="X34" s="119"/>
+      <c r="Y34" s="119"/>
+      <c r="Z34" s="120"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="108"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="80"/>
-      <c r="Y35" s="80"/>
-      <c r="Z35" s="81"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="110"/>
+      <c r="T35" s="110"/>
+      <c r="U35" s="110"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="110"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="110"/>
+      <c r="Z35" s="111"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="105" t="s">
+      <c r="B36" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
     </row>
     <row r="37" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="71"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="71"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="90"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="69"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="124"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="130" t="s">
+      <c r="C39" s="83"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="77"/>
-      <c r="T39" s="77"/>
-      <c r="U39" s="77"/>
-      <c r="V39" s="77"/>
-      <c r="W39" s="77"/>
-      <c r="X39" s="77"/>
-      <c r="Y39" s="77"/>
-      <c r="Z39" s="78"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
+      <c r="U39" s="119"/>
+      <c r="V39" s="119"/>
+      <c r="W39" s="119"/>
+      <c r="X39" s="119"/>
+      <c r="Y39" s="119"/>
+      <c r="Z39" s="120"/>
     </row>
     <row r="40" spans="2:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="116"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="80"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="80"/>
-      <c r="W40" s="80"/>
-      <c r="X40" s="80"/>
-      <c r="Y40" s="80"/>
-      <c r="Z40" s="81"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="110"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="110"/>
+      <c r="R40" s="110"/>
+      <c r="S40" s="110"/>
+      <c r="T40" s="110"/>
+      <c r="U40" s="110"/>
+      <c r="V40" s="110"/>
+      <c r="W40" s="110"/>
+      <c r="X40" s="110"/>
+      <c r="Y40" s="110"/>
+      <c r="Z40" s="111"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B41" s="127" t="s">
+      <c r="B41" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="127"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="127"/>
-      <c r="P41" s="127"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="127"/>
-      <c r="T41" s="127"/>
-      <c r="U41" s="127"/>
-      <c r="V41" s="127"/>
-      <c r="W41" s="127"/>
-      <c r="X41" s="127"/>
-      <c r="Y41" s="127"/>
-      <c r="Z41" s="127"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="123"/>
+      <c r="Q41" s="123"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="123"/>
+      <c r="U41" s="123"/>
+      <c r="V41" s="123"/>
+      <c r="W41" s="123"/>
+      <c r="X41" s="123"/>
+      <c r="Y41" s="123"/>
+      <c r="Z41" s="123"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B42" s="131" t="s">
+      <c r="B42" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="132"/>
-      <c r="P42" s="132"/>
-      <c r="Q42" s="132"/>
-      <c r="R42" s="132"/>
-      <c r="S42" s="132"/>
-      <c r="T42" s="132"/>
-      <c r="U42" s="132"/>
-      <c r="V42" s="132"/>
-      <c r="W42" s="132"/>
-      <c r="X42" s="132"/>
-      <c r="Y42" s="132"/>
-      <c r="Z42" s="132"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="125"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="125"/>
+      <c r="R42" s="125"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="125"/>
+      <c r="U42" s="125"/>
+      <c r="V42" s="125"/>
+      <c r="W42" s="125"/>
+      <c r="X42" s="125"/>
+      <c r="Y42" s="125"/>
+      <c r="Z42" s="125"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B43" s="132"/>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="132"/>
-      <c r="M43" s="132"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="132"/>
-      <c r="P43" s="132"/>
-      <c r="Q43" s="132"/>
-      <c r="R43" s="132"/>
-      <c r="S43" s="132"/>
-      <c r="T43" s="132"/>
-      <c r="U43" s="132"/>
-      <c r="V43" s="132"/>
-      <c r="W43" s="132"/>
-      <c r="X43" s="132"/>
-      <c r="Y43" s="132"/>
-      <c r="Z43" s="132"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="125"/>
+      <c r="N43" s="125"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="125"/>
+      <c r="R43" s="125"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="125"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="125"/>
+      <c r="W43" s="125"/>
+      <c r="X43" s="125"/>
+      <c r="Y43" s="125"/>
+      <c r="Z43" s="125"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M46" s="67" t="s">
+      <c r="M46" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="64"/>
-      <c r="S46" s="64"/>
-      <c r="T46" s="64"/>
-      <c r="U46" s="64"/>
-      <c r="V46" s="64"/>
-      <c r="W46" s="64"/>
-      <c r="X46" s="64"/>
-      <c r="Y46" s="64"/>
-      <c r="Z46" s="64"/>
+      <c r="N46" s="122"/>
+      <c r="O46" s="122"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
+      <c r="Z46" s="71"/>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="64"/>
-      <c r="S47" s="64"/>
-      <c r="T47" s="64"/>
-      <c r="U47" s="64"/>
-      <c r="V47" s="64"/>
-      <c r="W47" s="64"/>
-      <c r="X47" s="64"/>
-      <c r="Y47" s="64"/>
-      <c r="Z47" s="64"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
+      <c r="V47" s="71"/>
+      <c r="W47" s="71"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="71"/>
+      <c r="Z47" s="71"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="64"/>
-      <c r="R48" s="64"/>
-      <c r="S48" s="64"/>
-      <c r="T48" s="64"/>
-      <c r="U48" s="64"/>
-      <c r="V48" s="64"/>
-      <c r="W48" s="64"/>
-      <c r="X48" s="64"/>
-      <c r="Y48" s="64"/>
-      <c r="Z48" s="64"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
+      <c r="V48" s="71"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="71"/>
     </row>
     <row r="49" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="64"/>
-      <c r="S49" s="64"/>
-      <c r="T49" s="64"/>
-      <c r="U49" s="64"/>
-      <c r="V49" s="64"/>
-      <c r="W49" s="64"/>
-      <c r="X49" s="64"/>
-      <c r="Y49" s="64"/>
-      <c r="Z49" s="64"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -5971,74 +5967,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="Q1" s="142" t="s">
+      <c r="Q1" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
     </row>
     <row r="14" spans="2:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -6095,624 +6091,624 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="2:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="146"/>
-      <c r="S16" s="146"/>
-      <c r="T16" s="146"/>
-      <c r="U16" s="146"/>
-      <c r="V16" s="146"/>
-      <c r="W16" s="146"/>
-      <c r="X16" s="146"/>
-      <c r="Y16" s="146"/>
-      <c r="Z16" s="146"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="142"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="142"/>
+      <c r="X16" s="142"/>
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="142"/>
     </row>
     <row r="18" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q18" s="64" t="s">
+      <c r="Q18" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64" t="s">
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
     </row>
     <row r="19" spans="2:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="100"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="76"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="70" t="s">
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="72"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="151"/>
     </row>
     <row r="22" spans="2:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="150"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="96"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="81"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="70" t="s">
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="72"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="150"/>
+      <c r="T23" s="150"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="150"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="150"/>
+      <c r="Y23" s="150"/>
+      <c r="Z23" s="151"/>
     </row>
     <row r="24" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="93"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="90"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="150"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="96"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="81"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="147" t="s">
+      <c r="B26" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="70" t="s">
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="72"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="150"/>
+      <c r="Q26" s="150"/>
+      <c r="R26" s="150"/>
+      <c r="S26" s="150"/>
+      <c r="T26" s="150"/>
+      <c r="U26" s="150"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="150"/>
+      <c r="X26" s="150"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="151"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="93"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="90"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="150"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="96"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="81"/>
     </row>
     <row r="29" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="138"/>
+      <c r="W29" s="138"/>
+      <c r="X29" s="138"/>
+      <c r="Y29" s="138"/>
+      <c r="Z29" s="138"/>
     </row>
     <row r="30" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="133"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="75"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="107"/>
+      <c r="W30" s="107"/>
+      <c r="X30" s="107"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="108"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="135"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="78"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="119"/>
+      <c r="U31" s="119"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="119"/>
+      <c r="X31" s="119"/>
+      <c r="Y31" s="119"/>
+      <c r="Z31" s="120"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="135"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="77"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="77"/>
-      <c r="Z32" s="78"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="119"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="119"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="119"/>
+      <c r="T32" s="119"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="119"/>
+      <c r="W32" s="119"/>
+      <c r="X32" s="119"/>
+      <c r="Y32" s="119"/>
+      <c r="Z32" s="120"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B33" s="138"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="80"/>
-      <c r="Y33" s="80"/>
-      <c r="Z33" s="81"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="110"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="110"/>
+      <c r="V33" s="110"/>
+      <c r="W33" s="110"/>
+      <c r="X33" s="110"/>
+      <c r="Y33" s="110"/>
+      <c r="Z33" s="111"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="141" t="s">
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="64"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="71"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="71"/>
     </row>
     <row r="50" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M50" s="67" t="s">
+      <c r="M50" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="64"/>
-      <c r="T50" s="64"/>
-      <c r="U50" s="64"/>
-      <c r="V50" s="64"/>
-      <c r="W50" s="64"/>
-      <c r="X50" s="64"/>
-      <c r="Y50" s="64"/>
-      <c r="Z50" s="64"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
+      <c r="V50" s="71"/>
+      <c r="W50" s="71"/>
+      <c r="X50" s="71"/>
+      <c r="Y50" s="71"/>
+      <c r="Z50" s="71"/>
     </row>
     <row r="51" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="64"/>
-      <c r="S51" s="64"/>
-      <c r="T51" s="64"/>
-      <c r="U51" s="64"/>
-      <c r="V51" s="64"/>
-      <c r="W51" s="64"/>
-      <c r="X51" s="64"/>
-      <c r="Y51" s="64"/>
-      <c r="Z51" s="64"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
+      <c r="V51" s="71"/>
+      <c r="W51" s="71"/>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
+      <c r="Z51" s="71"/>
     </row>
     <row r="52" spans="13:26" x14ac:dyDescent="0.15">
-      <c r="M52" s="64"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="64"/>
-      <c r="Q52" s="64"/>
-      <c r="R52" s="64"/>
-      <c r="S52" s="64"/>
-      <c r="T52" s="64"/>
-      <c r="U52" s="64"/>
-      <c r="V52" s="64"/>
-      <c r="W52" s="64"/>
-      <c r="X52" s="64"/>
-      <c r="Y52" s="64"/>
-      <c r="Z52" s="64"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="71"/>
+      <c r="V52" s="71"/>
+      <c r="W52" s="71"/>
+      <c r="X52" s="71"/>
+      <c r="Y52" s="71"/>
+      <c r="Z52" s="71"/>
     </row>
     <row r="53" spans="13:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="64"/>
-      <c r="R53" s="64"/>
-      <c r="S53" s="64"/>
-      <c r="T53" s="64"/>
-      <c r="U53" s="64"/>
-      <c r="V53" s="64"/>
-      <c r="W53" s="64"/>
-      <c r="X53" s="64"/>
-      <c r="Y53" s="64"/>
-      <c r="Z53" s="64"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="71"/>
+      <c r="U53" s="71"/>
+      <c r="V53" s="71"/>
+      <c r="W53" s="71"/>
+      <c r="X53" s="71"/>
+      <c r="Y53" s="71"/>
+      <c r="Z53" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -6756,7 +6752,7 @@
   <dimension ref="A1:AG61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:AG20"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7422,7 +7418,7 @@
       <c r="H9" s="219"/>
       <c r="I9" s="219"/>
       <c r="J9" s="220" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K9" s="220"/>
       <c r="L9" s="220"/>
@@ -7494,7 +7490,7 @@
       <c r="H11" s="219"/>
       <c r="I11" s="219"/>
       <c r="J11" s="207" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K11" s="208"/>
       <c r="L11" s="208"/>
@@ -7530,7 +7526,7 @@
       <c r="H12" s="219"/>
       <c r="I12" s="219"/>
       <c r="J12" s="259" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K12" s="260"/>
       <c r="L12" s="260"/>
@@ -7636,7 +7632,7 @@
       <c r="H15" s="219"/>
       <c r="I15" s="219"/>
       <c r="J15" s="239" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K15" s="240"/>
       <c r="L15" s="240"/>
@@ -7657,7 +7653,7 @@
       <c r="Y15" s="246"/>
       <c r="Z15" s="247"/>
       <c r="AA15" s="239" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB15" s="240"/>
       <c r="AC15" s="240"/>
@@ -7843,7 +7839,7 @@
       <c r="AG20" s="221"/>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="171" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="197"/>
@@ -7853,35 +7849,35 @@
       <c r="G21" s="197"/>
       <c r="H21" s="197"/>
       <c r="I21" s="198"/>
-      <c r="J21" s="157" t="str">
+      <c r="J21" s="156" t="str">
         <f>IF(P21="スタンドアローン版PC入替え無し","Aタイプ",IF(P21="スタンドアローン版PC入替え有り","Bタイプ",IF(P21="ネットワーク版PC入替え無し","Cタイプ",IF(P21="ネットワーク版PC入替え有り","Dタイプ"))))</f>
         <v>Dタイプ</v>
       </c>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="163" t="s">
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="164"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="164"/>
-      <c r="U21" s="164"/>
-      <c r="V21" s="164"/>
-      <c r="W21" s="164"/>
-      <c r="X21" s="164"/>
-      <c r="Y21" s="164"/>
-      <c r="Z21" s="164"/>
-      <c r="AA21" s="164"/>
-      <c r="AB21" s="164"/>
-      <c r="AC21" s="164"/>
-      <c r="AD21" s="164"/>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="164"/>
-      <c r="AG21" s="165"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="163"/>
+      <c r="S21" s="163"/>
+      <c r="T21" s="163"/>
+      <c r="U21" s="163"/>
+      <c r="V21" s="163"/>
+      <c r="W21" s="163"/>
+      <c r="X21" s="163"/>
+      <c r="Y21" s="163"/>
+      <c r="Z21" s="163"/>
+      <c r="AA21" s="163"/>
+      <c r="AB21" s="163"/>
+      <c r="AC21" s="163"/>
+      <c r="AD21" s="163"/>
+      <c r="AE21" s="163"/>
+      <c r="AF21" s="163"/>
+      <c r="AG21" s="164"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B22" s="199"/>
@@ -7892,78 +7888,78 @@
       <c r="G22" s="200"/>
       <c r="H22" s="200"/>
       <c r="I22" s="201"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="166"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="166"/>
-      <c r="U22" s="166"/>
-      <c r="V22" s="166"/>
-      <c r="W22" s="166"/>
-      <c r="X22" s="166"/>
-      <c r="Y22" s="166"/>
-      <c r="Z22" s="166"/>
-      <c r="AA22" s="166"/>
-      <c r="AB22" s="166"/>
-      <c r="AC22" s="166"/>
-      <c r="AD22" s="166"/>
-      <c r="AE22" s="166"/>
-      <c r="AF22" s="166"/>
-      <c r="AG22" s="167"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="165"/>
+      <c r="R22" s="165"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="165"/>
+      <c r="V22" s="165"/>
+      <c r="W22" s="165"/>
+      <c r="X22" s="165"/>
+      <c r="Y22" s="165"/>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="165"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="165"/>
+      <c r="AD22" s="165"/>
+      <c r="AE22" s="165"/>
+      <c r="AF22" s="165"/>
+      <c r="AG22" s="166"/>
     </row>
     <row r="23" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="172" t="s">
+      <c r="B23" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="108"/>
       <c r="J23" s="222" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="163"/>
-      <c r="S23" s="163"/>
-      <c r="T23" s="163"/>
-      <c r="U23" s="163"/>
-      <c r="V23" s="163"/>
-      <c r="W23" s="163"/>
-      <c r="X23" s="163"/>
-      <c r="Y23" s="163"/>
-      <c r="Z23" s="163"/>
-      <c r="AA23" s="163"/>
-      <c r="AB23" s="163"/>
-      <c r="AC23" s="163"/>
-      <c r="AD23" s="163"/>
-      <c r="AE23" s="163"/>
-      <c r="AF23" s="163"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="162"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="162"/>
+      <c r="V23" s="162"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="162"/>
+      <c r="Y23" s="162"/>
+      <c r="Z23" s="162"/>
+      <c r="AA23" s="162"/>
+      <c r="AB23" s="162"/>
+      <c r="AC23" s="162"/>
+      <c r="AD23" s="162"/>
+      <c r="AE23" s="162"/>
+      <c r="AF23" s="162"/>
       <c r="AG23" s="223"/>
     </row>
     <row r="24" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="76"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="78"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="120"/>
       <c r="J24" s="224"/>
       <c r="K24" s="225"/>
       <c r="L24" s="225"/>
@@ -8024,7 +8020,7 @@
       <c r="AG25" s="218"/>
     </row>
     <row r="26" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="171" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="197"/>
@@ -8042,7 +8038,7 @@
       <c r="O26" s="202"/>
       <c r="P26" s="202"/>
       <c r="Q26" s="202"/>
-      <c r="R26" s="172" t="s">
+      <c r="R26" s="171" t="s">
         <v>48</v>
       </c>
       <c r="S26" s="197"/>
@@ -8096,7 +8092,7 @@
       <c r="AG27" s="202"/>
     </row>
     <row r="28" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="172" t="s">
+      <c r="B28" s="171" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="197"/>
@@ -8202,7 +8198,7 @@
       <c r="AG30" s="218"/>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B31" s="172" t="s">
+      <c r="B31" s="171" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="197"/>
@@ -8225,9 +8221,7 @@
       <c r="T31" s="208"/>
       <c r="U31" s="208"/>
       <c r="V31" s="208"/>
-      <c r="W31" s="213" t="s">
-        <v>96</v>
-      </c>
+      <c r="W31" s="213"/>
       <c r="X31" s="213"/>
       <c r="Y31" s="213"/>
       <c r="Z31" s="213"/>
@@ -8274,7 +8268,7 @@
       <c r="AG32" s="216"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B33" s="172" t="s">
+      <c r="B33" s="171" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="197"/>
@@ -8450,16 +8444,16 @@
       <c r="AG37" s="32"/>
     </row>
     <row r="38" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="172" t="s">
+      <c r="B38" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="108"/>
       <c r="J38" s="188" t="s">
         <v>76</v>
       </c>
@@ -8494,14 +8488,14 @@
       <c r="AG38" s="192"/>
     </row>
     <row r="39" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="76"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="78"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="182"/>
+      <c r="I39" s="120"/>
       <c r="J39" s="33" t="s">
         <v>80</v>
       </c>
@@ -8536,14 +8530,14 @@
       <c r="AG39" s="195"/>
     </row>
     <row r="40" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="168"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="78"/>
+      <c r="B40" s="167"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="120"/>
       <c r="J40" s="36" t="s">
         <v>81</v>
       </c>
@@ -8578,14 +8572,14 @@
       <c r="AG40" s="185"/>
     </row>
     <row r="41" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="76"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="78"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="182"/>
+      <c r="H41" s="182"/>
+      <c r="I41" s="120"/>
       <c r="J41" s="39"/>
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
@@ -8612,14 +8606,14 @@
       <c r="AG41" s="41"/>
     </row>
     <row r="42" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="168"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="78"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="182"/>
+      <c r="H42" s="182"/>
+      <c r="I42" s="120"/>
       <c r="Y42" s="42"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="43"/>
@@ -8631,14 +8625,14 @@
       <c r="AG42" s="43"/>
     </row>
     <row r="43" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="76"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="78"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="182"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="120"/>
       <c r="J43" s="44"/>
       <c r="K43" s="45"/>
       <c r="L43" s="45"/>
@@ -8665,14 +8659,14 @@
       <c r="AG43" s="46"/>
     </row>
     <row r="44" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="168"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="78"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="182"/>
+      <c r="H44" s="182"/>
+      <c r="I44" s="120"/>
       <c r="J44" s="3"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -8699,14 +8693,14 @@
       <c r="AG44" s="5"/>
     </row>
     <row r="45" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="76"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="78"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="182"/>
+      <c r="H45" s="182"/>
+      <c r="I45" s="120"/>
       <c r="J45" s="50"/>
       <c r="K45" s="51"/>
       <c r="L45" s="51"/>
@@ -8733,14 +8727,14 @@
       <c r="AG45" s="52"/>
     </row>
     <row r="46" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="168"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="78"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="120"/>
       <c r="J46" s="57"/>
       <c r="K46" s="58"/>
       <c r="L46" s="58"/>
@@ -8762,19 +8756,19 @@
       </c>
       <c r="AC46" s="61"/>
       <c r="AD46" s="62"/>
-      <c r="AE46" s="169"/>
-      <c r="AF46" s="170"/>
-      <c r="AG46" s="171"/>
+      <c r="AE46" s="168"/>
+      <c r="AF46" s="169"/>
+      <c r="AG46" s="170"/>
     </row>
     <row r="47" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="79"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="81"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="111"/>
       <c r="J47" s="6"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -8835,346 +8829,346 @@
       <c r="AG48" s="4"/>
     </row>
     <row r="49" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="172" t="s">
+      <c r="B49" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="173"/>
-      <c r="K49" s="174"/>
-      <c r="L49" s="174"/>
-      <c r="M49" s="174"/>
-      <c r="N49" s="174"/>
-      <c r="O49" s="174"/>
-      <c r="P49" s="174"/>
-      <c r="Q49" s="174"/>
-      <c r="R49" s="174"/>
-      <c r="S49" s="174"/>
-      <c r="T49" s="174"/>
-      <c r="U49" s="174"/>
-      <c r="V49" s="174"/>
-      <c r="W49" s="174"/>
-      <c r="X49" s="174"/>
-      <c r="Y49" s="174"/>
-      <c r="Z49" s="174"/>
-      <c r="AA49" s="174"/>
-      <c r="AB49" s="174"/>
-      <c r="AC49" s="174"/>
-      <c r="AD49" s="174"/>
-      <c r="AE49" s="174"/>
-      <c r="AF49" s="174"/>
-      <c r="AG49" s="175"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="172"/>
+      <c r="K49" s="173"/>
+      <c r="L49" s="173"/>
+      <c r="M49" s="173"/>
+      <c r="N49" s="173"/>
+      <c r="O49" s="173"/>
+      <c r="P49" s="173"/>
+      <c r="Q49" s="173"/>
+      <c r="R49" s="173"/>
+      <c r="S49" s="173"/>
+      <c r="T49" s="173"/>
+      <c r="U49" s="173"/>
+      <c r="V49" s="173"/>
+      <c r="W49" s="173"/>
+      <c r="X49" s="173"/>
+      <c r="Y49" s="173"/>
+      <c r="Z49" s="173"/>
+      <c r="AA49" s="173"/>
+      <c r="AB49" s="173"/>
+      <c r="AC49" s="173"/>
+      <c r="AD49" s="173"/>
+      <c r="AE49" s="173"/>
+      <c r="AF49" s="173"/>
+      <c r="AG49" s="174"/>
     </row>
     <row r="50" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="76"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="176"/>
-      <c r="K50" s="177"/>
-      <c r="L50" s="177"/>
-      <c r="M50" s="177"/>
-      <c r="N50" s="177"/>
-      <c r="O50" s="177"/>
-      <c r="P50" s="177"/>
-      <c r="Q50" s="177"/>
-      <c r="R50" s="177"/>
-      <c r="S50" s="177"/>
-      <c r="T50" s="177"/>
-      <c r="U50" s="177"/>
-      <c r="V50" s="177"/>
-      <c r="W50" s="177"/>
-      <c r="X50" s="177"/>
-      <c r="Y50" s="177"/>
-      <c r="Z50" s="177"/>
-      <c r="AA50" s="177"/>
-      <c r="AB50" s="177"/>
-      <c r="AC50" s="177"/>
-      <c r="AD50" s="177"/>
-      <c r="AE50" s="177"/>
-      <c r="AF50" s="177"/>
-      <c r="AG50" s="178"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="175"/>
+      <c r="K50" s="176"/>
+      <c r="L50" s="176"/>
+      <c r="M50" s="176"/>
+      <c r="N50" s="176"/>
+      <c r="O50" s="176"/>
+      <c r="P50" s="176"/>
+      <c r="Q50" s="176"/>
+      <c r="R50" s="176"/>
+      <c r="S50" s="176"/>
+      <c r="T50" s="176"/>
+      <c r="U50" s="176"/>
+      <c r="V50" s="176"/>
+      <c r="W50" s="176"/>
+      <c r="X50" s="176"/>
+      <c r="Y50" s="176"/>
+      <c r="Z50" s="176"/>
+      <c r="AA50" s="176"/>
+      <c r="AB50" s="176"/>
+      <c r="AC50" s="176"/>
+      <c r="AD50" s="176"/>
+      <c r="AE50" s="176"/>
+      <c r="AF50" s="176"/>
+      <c r="AG50" s="177"/>
     </row>
     <row r="51" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="76"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="177"/>
-      <c r="L51" s="177"/>
-      <c r="M51" s="177"/>
-      <c r="N51" s="177"/>
-      <c r="O51" s="177"/>
-      <c r="P51" s="177"/>
-      <c r="Q51" s="177"/>
-      <c r="R51" s="177"/>
-      <c r="S51" s="177"/>
-      <c r="T51" s="177"/>
-      <c r="U51" s="177"/>
-      <c r="V51" s="177"/>
-      <c r="W51" s="177"/>
-      <c r="X51" s="177"/>
-      <c r="Y51" s="177"/>
-      <c r="Z51" s="177"/>
-      <c r="AA51" s="177"/>
-      <c r="AB51" s="177"/>
-      <c r="AC51" s="177"/>
-      <c r="AD51" s="177"/>
-      <c r="AE51" s="177"/>
-      <c r="AF51" s="177"/>
-      <c r="AG51" s="178"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="175"/>
+      <c r="K51" s="176"/>
+      <c r="L51" s="176"/>
+      <c r="M51" s="176"/>
+      <c r="N51" s="176"/>
+      <c r="O51" s="176"/>
+      <c r="P51" s="176"/>
+      <c r="Q51" s="176"/>
+      <c r="R51" s="176"/>
+      <c r="S51" s="176"/>
+      <c r="T51" s="176"/>
+      <c r="U51" s="176"/>
+      <c r="V51" s="176"/>
+      <c r="W51" s="176"/>
+      <c r="X51" s="176"/>
+      <c r="Y51" s="176"/>
+      <c r="Z51" s="176"/>
+      <c r="AA51" s="176"/>
+      <c r="AB51" s="176"/>
+      <c r="AC51" s="176"/>
+      <c r="AD51" s="176"/>
+      <c r="AE51" s="176"/>
+      <c r="AF51" s="176"/>
+      <c r="AG51" s="177"/>
     </row>
     <row r="52" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="76"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="176"/>
-      <c r="K52" s="177"/>
-      <c r="L52" s="177"/>
-      <c r="M52" s="177"/>
-      <c r="N52" s="177"/>
-      <c r="O52" s="177"/>
-      <c r="P52" s="177"/>
-      <c r="Q52" s="177"/>
-      <c r="R52" s="177"/>
-      <c r="S52" s="177"/>
-      <c r="T52" s="177"/>
-      <c r="U52" s="177"/>
-      <c r="V52" s="177"/>
-      <c r="W52" s="177"/>
-      <c r="X52" s="177"/>
-      <c r="Y52" s="177"/>
-      <c r="Z52" s="177"/>
-      <c r="AA52" s="177"/>
-      <c r="AB52" s="177"/>
-      <c r="AC52" s="177"/>
-      <c r="AD52" s="177"/>
-      <c r="AE52" s="177"/>
-      <c r="AF52" s="177"/>
-      <c r="AG52" s="178"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="175"/>
+      <c r="K52" s="176"/>
+      <c r="L52" s="176"/>
+      <c r="M52" s="176"/>
+      <c r="N52" s="176"/>
+      <c r="O52" s="176"/>
+      <c r="P52" s="176"/>
+      <c r="Q52" s="176"/>
+      <c r="R52" s="176"/>
+      <c r="S52" s="176"/>
+      <c r="T52" s="176"/>
+      <c r="U52" s="176"/>
+      <c r="V52" s="176"/>
+      <c r="W52" s="176"/>
+      <c r="X52" s="176"/>
+      <c r="Y52" s="176"/>
+      <c r="Z52" s="176"/>
+      <c r="AA52" s="176"/>
+      <c r="AB52" s="176"/>
+      <c r="AC52" s="176"/>
+      <c r="AD52" s="176"/>
+      <c r="AE52" s="176"/>
+      <c r="AF52" s="176"/>
+      <c r="AG52" s="177"/>
     </row>
     <row r="53" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="76"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="176"/>
-      <c r="K53" s="177"/>
-      <c r="L53" s="177"/>
-      <c r="M53" s="177"/>
-      <c r="N53" s="177"/>
-      <c r="O53" s="177"/>
-      <c r="P53" s="177"/>
-      <c r="Q53" s="177"/>
-      <c r="R53" s="177"/>
-      <c r="S53" s="177"/>
-      <c r="T53" s="177"/>
-      <c r="U53" s="177"/>
-      <c r="V53" s="177"/>
-      <c r="W53" s="177"/>
-      <c r="X53" s="177"/>
-      <c r="Y53" s="177"/>
-      <c r="Z53" s="177"/>
-      <c r="AA53" s="177"/>
-      <c r="AB53" s="177"/>
-      <c r="AC53" s="177"/>
-      <c r="AD53" s="177"/>
-      <c r="AE53" s="177"/>
-      <c r="AF53" s="177"/>
-      <c r="AG53" s="178"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="175"/>
+      <c r="K53" s="176"/>
+      <c r="L53" s="176"/>
+      <c r="M53" s="176"/>
+      <c r="N53" s="176"/>
+      <c r="O53" s="176"/>
+      <c r="P53" s="176"/>
+      <c r="Q53" s="176"/>
+      <c r="R53" s="176"/>
+      <c r="S53" s="176"/>
+      <c r="T53" s="176"/>
+      <c r="U53" s="176"/>
+      <c r="V53" s="176"/>
+      <c r="W53" s="176"/>
+      <c r="X53" s="176"/>
+      <c r="Y53" s="176"/>
+      <c r="Z53" s="176"/>
+      <c r="AA53" s="176"/>
+      <c r="AB53" s="176"/>
+      <c r="AC53" s="176"/>
+      <c r="AD53" s="176"/>
+      <c r="AE53" s="176"/>
+      <c r="AF53" s="176"/>
+      <c r="AG53" s="177"/>
     </row>
     <row r="54" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="76"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="176"/>
-      <c r="K54" s="177"/>
-      <c r="L54" s="177"/>
-      <c r="M54" s="177"/>
-      <c r="N54" s="177"/>
-      <c r="O54" s="177"/>
-      <c r="P54" s="177"/>
-      <c r="Q54" s="177"/>
-      <c r="R54" s="177"/>
-      <c r="S54" s="177"/>
-      <c r="T54" s="177"/>
-      <c r="U54" s="177"/>
-      <c r="V54" s="177"/>
-      <c r="W54" s="177"/>
-      <c r="X54" s="177"/>
-      <c r="Y54" s="177"/>
-      <c r="Z54" s="177"/>
-      <c r="AA54" s="177"/>
-      <c r="AB54" s="177"/>
-      <c r="AC54" s="177"/>
-      <c r="AD54" s="177"/>
-      <c r="AE54" s="177"/>
-      <c r="AF54" s="177"/>
-      <c r="AG54" s="178"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="175"/>
+      <c r="K54" s="176"/>
+      <c r="L54" s="176"/>
+      <c r="M54" s="176"/>
+      <c r="N54" s="176"/>
+      <c r="O54" s="176"/>
+      <c r="P54" s="176"/>
+      <c r="Q54" s="176"/>
+      <c r="R54" s="176"/>
+      <c r="S54" s="176"/>
+      <c r="T54" s="176"/>
+      <c r="U54" s="176"/>
+      <c r="V54" s="176"/>
+      <c r="W54" s="176"/>
+      <c r="X54" s="176"/>
+      <c r="Y54" s="176"/>
+      <c r="Z54" s="176"/>
+      <c r="AA54" s="176"/>
+      <c r="AB54" s="176"/>
+      <c r="AC54" s="176"/>
+      <c r="AD54" s="176"/>
+      <c r="AE54" s="176"/>
+      <c r="AF54" s="176"/>
+      <c r="AG54" s="177"/>
     </row>
     <row r="55" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="76"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="179"/>
-      <c r="K55" s="180"/>
-      <c r="L55" s="180"/>
-      <c r="M55" s="180"/>
-      <c r="N55" s="180"/>
-      <c r="O55" s="180"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="180"/>
-      <c r="AC55" s="180"/>
-      <c r="AD55" s="180"/>
-      <c r="AE55" s="180"/>
-      <c r="AF55" s="180"/>
-      <c r="AG55" s="181"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="178"/>
+      <c r="K55" s="179"/>
+      <c r="L55" s="179"/>
+      <c r="M55" s="179"/>
+      <c r="N55" s="179"/>
+      <c r="O55" s="179"/>
+      <c r="P55" s="179"/>
+      <c r="Q55" s="179"/>
+      <c r="R55" s="179"/>
+      <c r="S55" s="179"/>
+      <c r="T55" s="179"/>
+      <c r="U55" s="179"/>
+      <c r="V55" s="179"/>
+      <c r="W55" s="179"/>
+      <c r="X55" s="179"/>
+      <c r="Y55" s="179"/>
+      <c r="Z55" s="179"/>
+      <c r="AA55" s="179"/>
+      <c r="AB55" s="179"/>
+      <c r="AC55" s="179"/>
+      <c r="AD55" s="179"/>
+      <c r="AE55" s="179"/>
+      <c r="AF55" s="179"/>
+      <c r="AG55" s="180"/>
     </row>
     <row r="56" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="76"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="179"/>
-      <c r="K56" s="180"/>
-      <c r="L56" s="180"/>
-      <c r="M56" s="180"/>
-      <c r="N56" s="180"/>
-      <c r="O56" s="180"/>
-      <c r="P56" s="180"/>
-      <c r="Q56" s="180"/>
-      <c r="R56" s="180"/>
-      <c r="S56" s="180"/>
-      <c r="T56" s="180"/>
-      <c r="U56" s="180"/>
-      <c r="V56" s="180"/>
-      <c r="W56" s="180"/>
-      <c r="X56" s="180"/>
-      <c r="Y56" s="180"/>
-      <c r="Z56" s="180"/>
-      <c r="AA56" s="180"/>
-      <c r="AB56" s="180"/>
-      <c r="AC56" s="180"/>
-      <c r="AD56" s="180"/>
-      <c r="AE56" s="180"/>
-      <c r="AF56" s="180"/>
-      <c r="AG56" s="181"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="178"/>
+      <c r="K56" s="179"/>
+      <c r="L56" s="179"/>
+      <c r="M56" s="179"/>
+      <c r="N56" s="179"/>
+      <c r="O56" s="179"/>
+      <c r="P56" s="179"/>
+      <c r="Q56" s="179"/>
+      <c r="R56" s="179"/>
+      <c r="S56" s="179"/>
+      <c r="T56" s="179"/>
+      <c r="U56" s="179"/>
+      <c r="V56" s="179"/>
+      <c r="W56" s="179"/>
+      <c r="X56" s="179"/>
+      <c r="Y56" s="179"/>
+      <c r="Z56" s="179"/>
+      <c r="AA56" s="179"/>
+      <c r="AB56" s="179"/>
+      <c r="AC56" s="179"/>
+      <c r="AD56" s="179"/>
+      <c r="AE56" s="179"/>
+      <c r="AF56" s="179"/>
+      <c r="AG56" s="180"/>
     </row>
     <row r="57" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B57" s="76"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="179"/>
-      <c r="K57" s="180"/>
-      <c r="L57" s="180"/>
-      <c r="M57" s="180"/>
-      <c r="N57" s="180"/>
-      <c r="O57" s="180"/>
-      <c r="P57" s="180"/>
-      <c r="Q57" s="180"/>
-      <c r="R57" s="180"/>
-      <c r="S57" s="180"/>
-      <c r="T57" s="180"/>
-      <c r="U57" s="180"/>
-      <c r="V57" s="180"/>
-      <c r="W57" s="180"/>
-      <c r="X57" s="180"/>
-      <c r="Y57" s="180"/>
-      <c r="Z57" s="180"/>
-      <c r="AA57" s="180"/>
-      <c r="AB57" s="180"/>
-      <c r="AC57" s="180"/>
-      <c r="AD57" s="180"/>
-      <c r="AE57" s="180"/>
-      <c r="AF57" s="180"/>
-      <c r="AG57" s="181"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="178"/>
+      <c r="K57" s="179"/>
+      <c r="L57" s="179"/>
+      <c r="M57" s="179"/>
+      <c r="N57" s="179"/>
+      <c r="O57" s="179"/>
+      <c r="P57" s="179"/>
+      <c r="Q57" s="179"/>
+      <c r="R57" s="179"/>
+      <c r="S57" s="179"/>
+      <c r="T57" s="179"/>
+      <c r="U57" s="179"/>
+      <c r="V57" s="179"/>
+      <c r="W57" s="179"/>
+      <c r="X57" s="179"/>
+      <c r="Y57" s="179"/>
+      <c r="Z57" s="179"/>
+      <c r="AA57" s="179"/>
+      <c r="AB57" s="179"/>
+      <c r="AC57" s="179"/>
+      <c r="AD57" s="179"/>
+      <c r="AE57" s="179"/>
+      <c r="AF57" s="179"/>
+      <c r="AG57" s="180"/>
     </row>
     <row r="58" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B58" s="79"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="87"/>
-      <c r="S58" s="87"/>
-      <c r="T58" s="87"/>
-      <c r="U58" s="87"/>
-      <c r="V58" s="87"/>
-      <c r="W58" s="87"/>
-      <c r="X58" s="87"/>
-      <c r="Y58" s="87"/>
-      <c r="Z58" s="87"/>
-      <c r="AA58" s="87"/>
-      <c r="AB58" s="87"/>
-      <c r="AC58" s="87"/>
-      <c r="AD58" s="87"/>
-      <c r="AE58" s="87"/>
-      <c r="AF58" s="87"/>
-      <c r="AG58" s="182"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="102"/>
+      <c r="L58" s="102"/>
+      <c r="M58" s="102"/>
+      <c r="N58" s="102"/>
+      <c r="O58" s="102"/>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="102"/>
+      <c r="R58" s="102"/>
+      <c r="S58" s="102"/>
+      <c r="T58" s="102"/>
+      <c r="U58" s="102"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
+      <c r="X58" s="102"/>
+      <c r="Y58" s="102"/>
+      <c r="Z58" s="102"/>
+      <c r="AA58" s="102"/>
+      <c r="AB58" s="102"/>
+      <c r="AC58" s="102"/>
+      <c r="AD58" s="102"/>
+      <c r="AE58" s="102"/>
+      <c r="AF58" s="102"/>
+      <c r="AG58" s="181"/>
     </row>
     <row r="59" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B59" s="2"/>
@@ -9185,32 +9179,32 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
-      <c r="J59" s="156" t="s">
+      <c r="J59" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="156"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="156"/>
-      <c r="N59" s="156"/>
-      <c r="O59" s="156"/>
-      <c r="P59" s="156"/>
-      <c r="Q59" s="156"/>
-      <c r="R59" s="156"/>
-      <c r="S59" s="156"/>
-      <c r="T59" s="156"/>
-      <c r="U59" s="156"/>
-      <c r="V59" s="156"/>
-      <c r="W59" s="156"/>
-      <c r="X59" s="156"/>
-      <c r="Y59" s="156"/>
-      <c r="Z59" s="156"/>
-      <c r="AA59" s="156"/>
-      <c r="AB59" s="156"/>
-      <c r="AC59" s="156"/>
-      <c r="AD59" s="156"/>
-      <c r="AE59" s="156"/>
-      <c r="AF59" s="156"/>
-      <c r="AG59" s="156"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
+      <c r="N59" s="155"/>
+      <c r="O59" s="155"/>
+      <c r="P59" s="155"/>
+      <c r="Q59" s="155"/>
+      <c r="R59" s="155"/>
+      <c r="S59" s="155"/>
+      <c r="T59" s="155"/>
+      <c r="U59" s="155"/>
+      <c r="V59" s="155"/>
+      <c r="W59" s="155"/>
+      <c r="X59" s="155"/>
+      <c r="Y59" s="155"/>
+      <c r="Z59" s="155"/>
+      <c r="AA59" s="155"/>
+      <c r="AB59" s="155"/>
+      <c r="AC59" s="155"/>
+      <c r="AD59" s="155"/>
+      <c r="AE59" s="155"/>
+      <c r="AF59" s="155"/>
+      <c r="AG59" s="155"/>
     </row>
     <row r="60" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B60" s="63"/>
@@ -9221,30 +9215,30 @@
       <c r="G60" s="63"/>
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="156"/>
-      <c r="N60" s="156"/>
-      <c r="O60" s="156"/>
-      <c r="P60" s="156"/>
-      <c r="Q60" s="156"/>
-      <c r="R60" s="156"/>
-      <c r="S60" s="156"/>
-      <c r="T60" s="156"/>
-      <c r="U60" s="156"/>
-      <c r="V60" s="156"/>
-      <c r="W60" s="156"/>
-      <c r="X60" s="156"/>
-      <c r="Y60" s="156"/>
-      <c r="Z60" s="156"/>
-      <c r="AA60" s="156"/>
-      <c r="AB60" s="156"/>
-      <c r="AC60" s="156"/>
-      <c r="AD60" s="156"/>
-      <c r="AE60" s="156"/>
-      <c r="AF60" s="156"/>
-      <c r="AG60" s="156"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
+      <c r="N60" s="155"/>
+      <c r="O60" s="155"/>
+      <c r="P60" s="155"/>
+      <c r="Q60" s="155"/>
+      <c r="R60" s="155"/>
+      <c r="S60" s="155"/>
+      <c r="T60" s="155"/>
+      <c r="U60" s="155"/>
+      <c r="V60" s="155"/>
+      <c r="W60" s="155"/>
+      <c r="X60" s="155"/>
+      <c r="Y60" s="155"/>
+      <c r="Z60" s="155"/>
+      <c r="AA60" s="155"/>
+      <c r="AB60" s="155"/>
+      <c r="AC60" s="155"/>
+      <c r="AD60" s="155"/>
+      <c r="AE60" s="155"/>
+      <c r="AF60" s="155"/>
+      <c r="AG60" s="155"/>
     </row>
     <row r="61" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="63"/>
@@ -9340,7 +9334,7 @@
     <mergeCell ref="B42:I43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P21:AG22" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"スタンドアローン版PC入替え無し,スタンドアローン版PC入替え有り,ネットワーク版PC入替え無し,ネットワーク版PC入替え有り"</formula1>
     </dataValidation>
@@ -9349,6 +9343,9 @@
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J28:Q29 Z28:AG29 J31:Q32 J35:Q36" xr:uid="{00000000-0002-0000-1100-000002000000}">
       <formula1>"有,無"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W31:AG32" xr:uid="{FDF90F38-DBC5-47E2-940A-2EE1C18D57A7}">
+      <formula1>"Windows7,Windows7・Windows8.1,Windows8.1・Windows10,Windows10"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.1417322834645669" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9365,8 +9362,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W35" sqref="W35:AG36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AT39" sqref="AT39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10439,7 +10436,7 @@
       <c r="AG20" s="278"/>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="171" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="197"/>
@@ -10449,15 +10446,15 @@
       <c r="G21" s="197"/>
       <c r="H21" s="197"/>
       <c r="I21" s="198"/>
-      <c r="J21" s="157" t="str">
+      <c r="J21" s="156" t="str">
         <f>IF(P21="スタンドアローン版PC入替え無し","Aタイプ",IF(P21="スタンドアローン版PC入替え有り","Bタイプ",IF(P21="ネットワーク版PC入替え無し","Cタイプ",IF(P21="ネットワーク版PC入替え有り","Dタイプ"))))</f>
         <v>Dタイプ</v>
       </c>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="159"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="158"/>
       <c r="P21" s="279" t="s">
         <v>44</v>
       </c>
@@ -10488,12 +10485,12 @@
       <c r="G22" s="200"/>
       <c r="H22" s="200"/>
       <c r="I22" s="201"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="162"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="161"/>
       <c r="P22" s="281"/>
       <c r="Q22" s="281"/>
       <c r="R22" s="281"/>
@@ -10514,16 +10511,16 @@
       <c r="AG22" s="282"/>
     </row>
     <row r="23" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="172" t="s">
+      <c r="B23" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="108"/>
       <c r="J23" s="283" t="s">
         <v>46</v>
       </c>
@@ -10552,14 +10549,14 @@
       <c r="AG23" s="280"/>
     </row>
     <row r="24" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="76"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="78"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="120"/>
       <c r="J24" s="284"/>
       <c r="K24" s="281"/>
       <c r="L24" s="281"/>
@@ -10620,7 +10617,7 @@
       <c r="AG25" s="218"/>
     </row>
     <row r="26" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="171" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="197"/>
@@ -10640,7 +10637,7 @@
       <c r="O26" s="285"/>
       <c r="P26" s="285"/>
       <c r="Q26" s="285"/>
-      <c r="R26" s="172" t="s">
+      <c r="R26" s="171" t="s">
         <v>48</v>
       </c>
       <c r="S26" s="197"/>
@@ -10696,7 +10693,7 @@
       <c r="AG27" s="285"/>
     </row>
     <row r="28" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="172" t="s">
+      <c r="B28" s="171" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="197"/>
@@ -10806,7 +10803,7 @@
       <c r="AG30" s="218"/>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B31" s="172" t="s">
+      <c r="B31" s="171" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="197"/>
@@ -10882,7 +10879,7 @@
       <c r="AG32" s="282"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B33" s="172" t="s">
+      <c r="B33" s="171" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="197"/>
@@ -10986,7 +10983,7 @@
       <c r="U35" s="272"/>
       <c r="V35" s="272"/>
       <c r="W35" s="272" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X35" s="272"/>
       <c r="Y35" s="272"/>
@@ -11068,16 +11065,16 @@
       <c r="AG37" s="32"/>
     </row>
     <row r="38" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="172" t="s">
+      <c r="B38" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="108"/>
       <c r="J38" s="188" t="s">
         <v>76</v>
       </c>
@@ -11112,14 +11109,14 @@
       <c r="AG38" s="192"/>
     </row>
     <row r="39" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="76"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="78"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="182"/>
+      <c r="I39" s="120"/>
       <c r="J39" s="33" t="s">
         <v>80</v>
       </c>
@@ -11154,14 +11151,14 @@
       <c r="AG39" s="195"/>
     </row>
     <row r="40" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="168"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="78"/>
+      <c r="B40" s="167"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="120"/>
       <c r="J40" s="36" t="s">
         <v>81</v>
       </c>
@@ -11196,14 +11193,14 @@
       <c r="AG40" s="185"/>
     </row>
     <row r="41" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="76"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="78"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="182"/>
+      <c r="H41" s="182"/>
+      <c r="I41" s="120"/>
       <c r="J41" s="39"/>
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
@@ -11230,14 +11227,14 @@
       <c r="AG41" s="41"/>
     </row>
     <row r="42" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="168"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="78"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="182"/>
+      <c r="H42" s="182"/>
+      <c r="I42" s="120"/>
       <c r="Y42" s="42"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="43"/>
@@ -11249,14 +11246,14 @@
       <c r="AG42" s="43"/>
     </row>
     <row r="43" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="76"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="78"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="182"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="120"/>
       <c r="J43" s="44"/>
       <c r="K43" s="45"/>
       <c r="L43" s="45"/>
@@ -11283,14 +11280,14 @@
       <c r="AG43" s="46"/>
     </row>
     <row r="44" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="168"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="78"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="182"/>
+      <c r="H44" s="182"/>
+      <c r="I44" s="120"/>
       <c r="J44" s="14"/>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
@@ -11317,14 +11314,14 @@
       <c r="AG44" s="16"/>
     </row>
     <row r="45" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="76"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="78"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="182"/>
+      <c r="H45" s="182"/>
+      <c r="I45" s="120"/>
       <c r="J45" s="50"/>
       <c r="K45" s="51"/>
       <c r="L45" s="51"/>
@@ -11351,14 +11348,14 @@
       <c r="AG45" s="52"/>
     </row>
     <row r="46" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="168"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="78"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="120"/>
       <c r="J46" s="57"/>
       <c r="K46" s="58"/>
       <c r="L46" s="58"/>
@@ -11380,19 +11377,19 @@
       </c>
       <c r="AC46" s="61"/>
       <c r="AD46" s="62"/>
-      <c r="AE46" s="169"/>
-      <c r="AF46" s="170"/>
-      <c r="AG46" s="171"/>
+      <c r="AE46" s="168"/>
+      <c r="AF46" s="169"/>
+      <c r="AG46" s="170"/>
     </row>
     <row r="47" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="79"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="81"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="111"/>
       <c r="J47" s="10"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
@@ -11453,16 +11450,16 @@
       <c r="AG48" s="15"/>
     </row>
     <row r="49" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="172" t="s">
+      <c r="B49" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="75"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="108"/>
       <c r="J49" s="287" t="s">
         <v>93</v>
       </c>
@@ -11491,14 +11488,14 @@
       <c r="AG49" s="289"/>
     </row>
     <row r="50" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="76"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="78"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="120"/>
       <c r="J50" s="290"/>
       <c r="K50" s="291"/>
       <c r="L50" s="291"/>
@@ -11525,14 +11522,14 @@
       <c r="AG50" s="292"/>
     </row>
     <row r="51" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="76"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="78"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="120"/>
       <c r="J51" s="290" t="s">
         <v>92</v>
       </c>
@@ -11561,14 +11558,14 @@
       <c r="AG51" s="292"/>
     </row>
     <row r="52" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="76"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="78"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="120"/>
       <c r="J52" s="290"/>
       <c r="K52" s="291"/>
       <c r="L52" s="291"/>
@@ -11595,14 +11592,14 @@
       <c r="AG52" s="292"/>
     </row>
     <row r="53" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="76"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="78"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="120"/>
       <c r="J53" s="290" t="s">
         <v>94</v>
       </c>
@@ -11631,14 +11628,14 @@
       <c r="AG53" s="292"/>
     </row>
     <row r="54" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="76"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="78"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="120"/>
       <c r="J54" s="290"/>
       <c r="K54" s="291"/>
       <c r="L54" s="291"/>
@@ -11665,140 +11662,140 @@
       <c r="AG54" s="292"/>
     </row>
     <row r="55" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="76"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="179"/>
-      <c r="K55" s="180"/>
-      <c r="L55" s="180"/>
-      <c r="M55" s="180"/>
-      <c r="N55" s="180"/>
-      <c r="O55" s="180"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="180"/>
-      <c r="AC55" s="180"/>
-      <c r="AD55" s="180"/>
-      <c r="AE55" s="180"/>
-      <c r="AF55" s="180"/>
-      <c r="AG55" s="181"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="178"/>
+      <c r="K55" s="179"/>
+      <c r="L55" s="179"/>
+      <c r="M55" s="179"/>
+      <c r="N55" s="179"/>
+      <c r="O55" s="179"/>
+      <c r="P55" s="179"/>
+      <c r="Q55" s="179"/>
+      <c r="R55" s="179"/>
+      <c r="S55" s="179"/>
+      <c r="T55" s="179"/>
+      <c r="U55" s="179"/>
+      <c r="V55" s="179"/>
+      <c r="W55" s="179"/>
+      <c r="X55" s="179"/>
+      <c r="Y55" s="179"/>
+      <c r="Z55" s="179"/>
+      <c r="AA55" s="179"/>
+      <c r="AB55" s="179"/>
+      <c r="AC55" s="179"/>
+      <c r="AD55" s="179"/>
+      <c r="AE55" s="179"/>
+      <c r="AF55" s="179"/>
+      <c r="AG55" s="180"/>
     </row>
     <row r="56" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="76"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="179"/>
-      <c r="K56" s="180"/>
-      <c r="L56" s="180"/>
-      <c r="M56" s="180"/>
-      <c r="N56" s="180"/>
-      <c r="O56" s="180"/>
-      <c r="P56" s="180"/>
-      <c r="Q56" s="180"/>
-      <c r="R56" s="180"/>
-      <c r="S56" s="180"/>
-      <c r="T56" s="180"/>
-      <c r="U56" s="180"/>
-      <c r="V56" s="180"/>
-      <c r="W56" s="180"/>
-      <c r="X56" s="180"/>
-      <c r="Y56" s="180"/>
-      <c r="Z56" s="180"/>
-      <c r="AA56" s="180"/>
-      <c r="AB56" s="180"/>
-      <c r="AC56" s="180"/>
-      <c r="AD56" s="180"/>
-      <c r="AE56" s="180"/>
-      <c r="AF56" s="180"/>
-      <c r="AG56" s="181"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="178"/>
+      <c r="K56" s="179"/>
+      <c r="L56" s="179"/>
+      <c r="M56" s="179"/>
+      <c r="N56" s="179"/>
+      <c r="O56" s="179"/>
+      <c r="P56" s="179"/>
+      <c r="Q56" s="179"/>
+      <c r="R56" s="179"/>
+      <c r="S56" s="179"/>
+      <c r="T56" s="179"/>
+      <c r="U56" s="179"/>
+      <c r="V56" s="179"/>
+      <c r="W56" s="179"/>
+      <c r="X56" s="179"/>
+      <c r="Y56" s="179"/>
+      <c r="Z56" s="179"/>
+      <c r="AA56" s="179"/>
+      <c r="AB56" s="179"/>
+      <c r="AC56" s="179"/>
+      <c r="AD56" s="179"/>
+      <c r="AE56" s="179"/>
+      <c r="AF56" s="179"/>
+      <c r="AG56" s="180"/>
     </row>
     <row r="57" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B57" s="76"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="179"/>
-      <c r="K57" s="180"/>
-      <c r="L57" s="180"/>
-      <c r="M57" s="180"/>
-      <c r="N57" s="180"/>
-      <c r="O57" s="180"/>
-      <c r="P57" s="180"/>
-      <c r="Q57" s="180"/>
-      <c r="R57" s="180"/>
-      <c r="S57" s="180"/>
-      <c r="T57" s="180"/>
-      <c r="U57" s="180"/>
-      <c r="V57" s="180"/>
-      <c r="W57" s="180"/>
-      <c r="X57" s="180"/>
-      <c r="Y57" s="180"/>
-      <c r="Z57" s="180"/>
-      <c r="AA57" s="180"/>
-      <c r="AB57" s="180"/>
-      <c r="AC57" s="180"/>
-      <c r="AD57" s="180"/>
-      <c r="AE57" s="180"/>
-      <c r="AF57" s="180"/>
-      <c r="AG57" s="181"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="178"/>
+      <c r="K57" s="179"/>
+      <c r="L57" s="179"/>
+      <c r="M57" s="179"/>
+      <c r="N57" s="179"/>
+      <c r="O57" s="179"/>
+      <c r="P57" s="179"/>
+      <c r="Q57" s="179"/>
+      <c r="R57" s="179"/>
+      <c r="S57" s="179"/>
+      <c r="T57" s="179"/>
+      <c r="U57" s="179"/>
+      <c r="V57" s="179"/>
+      <c r="W57" s="179"/>
+      <c r="X57" s="179"/>
+      <c r="Y57" s="179"/>
+      <c r="Z57" s="179"/>
+      <c r="AA57" s="179"/>
+      <c r="AB57" s="179"/>
+      <c r="AC57" s="179"/>
+      <c r="AD57" s="179"/>
+      <c r="AE57" s="179"/>
+      <c r="AF57" s="179"/>
+      <c r="AG57" s="180"/>
     </row>
     <row r="58" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B58" s="79"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="87"/>
-      <c r="S58" s="87"/>
-      <c r="T58" s="87"/>
-      <c r="U58" s="87"/>
-      <c r="V58" s="87"/>
-      <c r="W58" s="87"/>
-      <c r="X58" s="87"/>
-      <c r="Y58" s="87"/>
-      <c r="Z58" s="87"/>
-      <c r="AA58" s="87"/>
-      <c r="AB58" s="87"/>
-      <c r="AC58" s="87"/>
-      <c r="AD58" s="87"/>
-      <c r="AE58" s="87"/>
-      <c r="AF58" s="87"/>
-      <c r="AG58" s="182"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="102"/>
+      <c r="L58" s="102"/>
+      <c r="M58" s="102"/>
+      <c r="N58" s="102"/>
+      <c r="O58" s="102"/>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="102"/>
+      <c r="R58" s="102"/>
+      <c r="S58" s="102"/>
+      <c r="T58" s="102"/>
+      <c r="U58" s="102"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
+      <c r="X58" s="102"/>
+      <c r="Y58" s="102"/>
+      <c r="Z58" s="102"/>
+      <c r="AA58" s="102"/>
+      <c r="AB58" s="102"/>
+      <c r="AC58" s="102"/>
+      <c r="AD58" s="102"/>
+      <c r="AE58" s="102"/>
+      <c r="AF58" s="102"/>
+      <c r="AG58" s="181"/>
     </row>
     <row r="59" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B59" s="13"/>
@@ -11809,32 +11806,32 @@
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="156" t="s">
+      <c r="J59" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="156"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="156"/>
-      <c r="N59" s="156"/>
-      <c r="O59" s="156"/>
-      <c r="P59" s="156"/>
-      <c r="Q59" s="156"/>
-      <c r="R59" s="156"/>
-      <c r="S59" s="156"/>
-      <c r="T59" s="156"/>
-      <c r="U59" s="156"/>
-      <c r="V59" s="156"/>
-      <c r="W59" s="156"/>
-      <c r="X59" s="156"/>
-      <c r="Y59" s="156"/>
-      <c r="Z59" s="156"/>
-      <c r="AA59" s="156"/>
-      <c r="AB59" s="156"/>
-      <c r="AC59" s="156"/>
-      <c r="AD59" s="156"/>
-      <c r="AE59" s="156"/>
-      <c r="AF59" s="156"/>
-      <c r="AG59" s="156"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
+      <c r="N59" s="155"/>
+      <c r="O59" s="155"/>
+      <c r="P59" s="155"/>
+      <c r="Q59" s="155"/>
+      <c r="R59" s="155"/>
+      <c r="S59" s="155"/>
+      <c r="T59" s="155"/>
+      <c r="U59" s="155"/>
+      <c r="V59" s="155"/>
+      <c r="W59" s="155"/>
+      <c r="X59" s="155"/>
+      <c r="Y59" s="155"/>
+      <c r="Z59" s="155"/>
+      <c r="AA59" s="155"/>
+      <c r="AB59" s="155"/>
+      <c r="AC59" s="155"/>
+      <c r="AD59" s="155"/>
+      <c r="AE59" s="155"/>
+      <c r="AF59" s="155"/>
+      <c r="AG59" s="155"/>
     </row>
     <row r="60" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B60" s="63"/>
@@ -11845,30 +11842,30 @@
       <c r="G60" s="63"/>
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="156"/>
-      <c r="N60" s="156"/>
-      <c r="O60" s="156"/>
-      <c r="P60" s="156"/>
-      <c r="Q60" s="156"/>
-      <c r="R60" s="156"/>
-      <c r="S60" s="156"/>
-      <c r="T60" s="156"/>
-      <c r="U60" s="156"/>
-      <c r="V60" s="156"/>
-      <c r="W60" s="156"/>
-      <c r="X60" s="156"/>
-      <c r="Y60" s="156"/>
-      <c r="Z60" s="156"/>
-      <c r="AA60" s="156"/>
-      <c r="AB60" s="156"/>
-      <c r="AC60" s="156"/>
-      <c r="AD60" s="156"/>
-      <c r="AE60" s="156"/>
-      <c r="AF60" s="156"/>
-      <c r="AG60" s="156"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
+      <c r="N60" s="155"/>
+      <c r="O60" s="155"/>
+      <c r="P60" s="155"/>
+      <c r="Q60" s="155"/>
+      <c r="R60" s="155"/>
+      <c r="S60" s="155"/>
+      <c r="T60" s="155"/>
+      <c r="U60" s="155"/>
+      <c r="V60" s="155"/>
+      <c r="W60" s="155"/>
+      <c r="X60" s="155"/>
+      <c r="Y60" s="155"/>
+      <c r="Z60" s="155"/>
+      <c r="AA60" s="155"/>
+      <c r="AB60" s="155"/>
+      <c r="AC60" s="155"/>
+      <c r="AD60" s="155"/>
+      <c r="AE60" s="155"/>
+      <c r="AF60" s="155"/>
+      <c r="AG60" s="155"/>
     </row>
     <row r="61" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="63"/>
